--- a/src/locales/messages.xlsx
+++ b/src/locales/messages.xlsx
@@ -488,369 +488,873 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>запись бо-бо</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>headache</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>mal de tête</t>
+          <t>Oui</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>dolor de cabeza</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>головний біль</t>
+          <t>Так</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>приём лекарства</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>medication intake</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>prise de médicaments</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>ingesta de medicamentos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>прийом ліків</t>
+          <t>Ні</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>запись давления</t>
+          <t>Отмена</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>blood pressure record</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>enregistrement de la tension artérielle</t>
+          <t>Annuler</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>registro de presión arterial</t>
+          <t>Cancelar</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>запис тиску</t>
+          <t>Відміна</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>список лекарств</t>
+          <t>Не имеются</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>list of medicines</t>
+          <t>No comments</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>liste des médicaments</t>
+          <t>Sans commentaires</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>lista de medicamentos</t>
+          <t>Sin comentarios</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>список ліків</t>
+          <t>Немає</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>изменить записи</t>
+          <t>Сегодня</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>change records</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>modifier les enregistrements</t>
+          <t>Aujourd'hui</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>modificar registros</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>змінити записи</t>
+          <t>Сьогодні</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>статистика</t>
+          <t>Вчера</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>statistics</t>
+          <t>Yesterday</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>statistiques</t>
+          <t>Hier</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>estadísticas</t>
+          <t>Ayer</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>статистика</t>
+          <t>Вчора</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>настройки</t>
+          <t>Выбрать другую дату</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>Choose another date</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>paramètres</t>
+          <t>Choisissez une autre date</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>ajustes</t>
+          <t>Elige otra fecha</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>налаштування</t>
+          <t>Виберіть іншу дату</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Введите название медикамента:</t>
+          <t>Следующий вопрос</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Enter the name of the medication:</t>
+          <t>Next question</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Inscrivez le nom du médicament :</t>
+          <t>Question suivante</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Ingrese el nombre del medicamento:</t>
+          <t>Próxima pregunta</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Введіть назву препарату:</t>
+          <t>Наступне питання</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Отмена</t>
+          <t>Стресс</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Stress</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Annuler</t>
+          <t>Stress</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Cancelar</t>
+          <t>Estrés</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Відміна</t>
+          <t>Стрес</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Какова максимальная суточная доза (в мг)? - выберите из предложенных или напишите свой вариант</t>
+          <t>Разрешение стресса</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>What is the maximum daily dose (in mg)? - you can type your own option</t>
+          <t>Stress Resolution</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Quelle est la dose quotidienne maximale (en mg) ? - vous pouvez taper votre propre option</t>
+          <t>Résolution du stress</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>¿Cuál es la dosis máxima diaria (en mg)? - puedes escribir tu propia opción</t>
+          <t>Resolución del estrés</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Яка максимальна добова доза (мг)? - Виберіть із запропонованих або напишіть свій варіант</t>
+          <t>Усунення стресу</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Количество должно быть числом, повторите ввод:</t>
+          <t>Пропуск приёма пищи</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr"/>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>The quantity must be a number, please try again:</t>
+          <t>Skipping a meal</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>La quantité doit être un nombre, veuillez réessayer :</t>
+          <t>Sauter un repas</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>La cantidad debe ser un número, inténtalo de nuevo:</t>
+          <t>Saltarse una comida</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Кількість має бути числом, спробуйте ще раз:</t>
+          <t>Пропуск прийому їжі</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Является обезболивающим?</t>
+          <t>Недостаточный сон</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr"/>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Is it an analgesic?</t>
+          <t>Insufficient sleep</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Est-ce un analgésique ?</t>
+          <t>Un sommeil insuffisant</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>¿Es un analgésico?</t>
+          <t>Sueño insuficiente</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Це знеболюючий засіб?</t>
+          <t>Недостатній сон</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Является жаропонижающим?</t>
+          <t>Избыточный сон</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Is it antipyretic?</t>
+          <t>Excessive sleep</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Est-ce antipyrétique ?</t>
+          <t>Sommeil excessif</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>¿Es antipirético?</t>
+          <t>Sueño excesivo</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Це жарознижуюче?</t>
+          <t>Надмірний сон</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Алкоголь</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Alcohol</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Alcohol</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Алкоголь</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Яркий свет</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Bright light</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Lumière brillante</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Luz brillante</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Яскраве світло</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Шоколад</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Chocolate</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chocolat</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Chocolate</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Шоколад</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Сыр</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Fromage</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Queso</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Сир</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Кофе</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Кава</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Сильные запахи</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Strong odors</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Odeurs fortes</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Olores fuertes</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Сильні запахи</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Погода</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Weather</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Météo</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Clima</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Погода</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Гормоны</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Hormones</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Les hormones</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Hormonas</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Гормони</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Тошнота</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Nausea</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Nausée</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Náuseas</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Нудота</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Рвота</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Vomiting</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Vomissement</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Vómitos</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Блювання</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Боль в шее</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Neck pain</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Douleur du cou</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Dolor de cuello</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Біль у шиї</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Светочувствительность</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Light sensitivity</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Sensibilité à la lumière</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Sensibilidad a la luz</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Світлочутливість</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Чувствительность к звукам</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Sensitivity to sounds</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Sensibilité aux sons</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Sensibilidad a los sonidos</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Чутливість до звуків</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Введите название медикамента:</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Enter the name of the medication:</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Inscrivez le nom du médicament :</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Ingrese el nombre del medicamento:</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>Введіть назву препарату:</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Какова максимальная суточная доза (в мг)? - выберите из предложенных или напишите свой вариант</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>What is the maximum daily dose (in mg)? - you can type your own option</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Quelle est la dose quotidienne maximale (en mg) ? - vous pouvez taper votre propre option</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>¿Cuál es la dosis máxima diaria (en mg)? - puedes escribir tu propia opción</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Яка максимальна добова доза (мг)? - Виберіть із запропонованих або напишіть свій варіант</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Количество должно быть числом, повторите ввод:</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>The quantity must be a number, please try again:</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>La quantité doit être un nombre, veuillez réessayer :</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>La cantidad debe ser un número, inténtalo de nuevo:</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>Кількість має бути числом, спробуйте ще раз:</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Является обезболивающим?</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Is it an analgesic?</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Est-ce un analgésique ?</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>¿Es un analgésico?</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Це знеболюючий засіб?</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Является жаропонижающим?</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Is it antipyretic?</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Est-ce antipyrétique ?</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>¿Es antipirético?</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>Це жарознижуюче?</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>Добавлен {name}
 Дозировка макс.: {daily_max}
@@ -858,8 +1362,8 @@
 Жаропонижающее: {is_temp_reducer}</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr"/>
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Added {name}
 Dosage max.: {daily_max}
@@ -867,12 +1371,15 @@
 Antipyretic: {is_temp_reducer}</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Ajout de {name} Dosage max. : {daily_max} Analgésique : {is_painkiller} Antipyrétique : {is_temp_reducer}</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Ajout de {name}
+Dosage max. : {daily_max}
+Analgésique : {is_painkiller}
+Antipyrétique : {is_temp_reducer}</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Se agregó {name}
 Dosis máx.: {daily_max} 
@@ -880,7 +1387,7 @@
 Antipirético: {is_temp_reducer}</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>Додано {name}
 Максимальна доза: {daily_max}
@@ -889,1448 +1396,749 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Так</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>Ні</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Отлично!</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Wonderful!</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>Merveilleux!</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>¡Maravilloso!</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>Чудово!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Не имеются</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>No comments</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Sans commentaires</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Sin comentarios</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>Немає</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Сегодня</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>Aujourd'hui</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>Hoy</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>Сьогодні</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Вчера</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Yesterday</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Hier</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>Ayer</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>Вчора</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Выбрать другую дату</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr"/>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Choose another date</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Choisissez une autre date</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Elige otra fecha</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>Виберіть іншу дату</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Следующий вопрос</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr"/>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Next question</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Question suivante</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>Próxima pregunta</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>Наступне питання</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Стресс</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Stress</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Stress</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>Estrés</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>Стрес</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Разрешение стресса</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Stress Resolution</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Résolution du stress</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Resolución del estrés</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>Усунення стресу</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Пропуск приёма пищи</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Skipping a meal</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>Sauter un repas</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>Saltarse una comida</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>Пропуск прийому їжі</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Недостаточный сон</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Insufficient sleep</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Un sommeil insuffisant</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>Sueño insuficiente</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>Недостатній сон</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Избыточный сон</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Excessive sleep</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Sommeil excessif</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Sueño excesivo</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>Надмірний сон</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Алкоголь</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Alcohol</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>Alcool</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>Alcohol</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>Алкоголь</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Яркий свет</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Bright light</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>Lumière brillante</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>Luz brillante</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>Яскраве світло</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Шоколад</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Chocolate</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Chocolat</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>Chocolate</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>Шоколад</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Сыр</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Cheese</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>Fromage</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>Queso</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>Сир</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Кофе</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>Café</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>Café</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>Кава</t>
-        </is>
-      </c>
-    </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Сильные запахи</t>
+          <t>Отлично!</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr"/>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Strong odors</t>
+          <t>Wonderful!</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Odeurs fortes</t>
+          <t>Merveilleux!</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Olores fuertes</t>
+          <t>¡Maravilloso!</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Сильні запахи</t>
+          <t>Чудово!</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Погода</t>
+          <t>Не знаю</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr"/>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Weather</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Météo</t>
+          <t>Je ne sais pas</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Clima</t>
+          <t>No sé</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Погода</t>
+          <t>Не знаю</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Гормоны</t>
+          <t>Бот запишет ваши показатели давления и пульса на текущий момент. 
+Выберите систолическое давление (верхнее значение)</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr"/>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Hormones</t>
+          <t>The bot will record your current blood pressure and heart rate. 
+Select your systolic blood pressure (upper value)</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>Les hormones</t>
+          <t>Le robot enregistrera votre tension artérielle et votre pouls actuelles. Sélectionnez votre tension artérielle systolique (valeur supérieure)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Hormonas</t>
+          <t>El bot registrará su presión arterial y frecuencia cardíaca actuales.
+Seleccione su presión arterial sistólica (valor superior)</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Гормони</t>
+          <t>Бот запише ваші показники тиску і пульсу на поточний момент. 
+Виберіть систолічний тиск (верхнє значення)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Тошнота</t>
+          <t>Диастолическое давление (нижнее значение):</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr"/>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Diastolic pressure (lower value):</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>Nausée</t>
+          <t>Pression diastolique (valeur inférieure) :</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>Náuseas</t>
+          <t>Presión diastólica (valor inferior):</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Нудота</t>
+          <t>Діастолічний тиск (нижнє значення):</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Рвота</t>
+          <t>Ваш пульс?</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr"/>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>What's your heart rate?</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>Vomissement</t>
+          <t>Quelle est votre pouls ?</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Vómitos</t>
+          <t>¿Qué pulso tienes?</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Блювання</t>
+          <t>Який у вас пульс?</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Боль в шее</t>
+          <t>Успешно добавлено!</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr"/>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Neck pain</t>
+          <t>Added successfully!</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Douleur du cou</t>
+          <t>Ajouté avec succès !</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>Dolor de cuello</t>
+          <t>¡Añadido con éxito!</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Біль у шиї</t>
+          <t>Успішно додано!</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Светочувствительность</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr"/>
+          <t>Дата приёма?</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>NOTE Date of a medication intake</t>
+        </is>
+      </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Light sensitivity</t>
+          <t>Date of intake?</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>Sensibilité à la lumière</t>
+          <t>Date de prise ?</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Sensibilidad a la luz</t>
+          <t>¿La fecha de tomar?</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Світлочутливість</t>
+          <t>Дата прийому?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Чувствительность к звукам</t>
+          <t>Что принимали? (можно написать)</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr"/>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Sensitivity to sounds</t>
+          <t>What did you take? (you can write)</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Sensibilité aux sons</t>
+          <t>Qu'avez-vous pris? (vous pouvez l'écrire)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Sensibilidad a los sonidos</t>
+          <t>¿Qué medicación ha estado tomando? (puedes escribir)</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>Чутливість до звуків</t>
+          <t>Що приймали? (можна написати)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Не знаю</t>
+          <t>Сообщение не может быть пустым, повторите</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr"/>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>The message cannot be blank, please try again</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Je ne sais pas</t>
+          <t>Le message ne peut pas être vide, veuillez réessayer</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>No sé</t>
+          <t>El mensaje no puede estar en blanco, inténtalo de nuevo</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>Не знаю</t>
+          <t>Повідомлення не може бути порожнім, спробуйте ще раз</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Бот запишет ваши показатели давления и пульса на текущий момент. 
-Выберите систолическое давление (верхнее значение)</t>
+          <t>Количество принятого? (можно написать)</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr"/>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>The bot will record your current blood pressure and heart rate. 
-Select your systolic blood pressure (upper value)</t>
+          <t>How much did you take? (you can write)</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Le robot enregistrera votre tension artérielle et votre pouls actuelles. Sélectionnez votre tension artérielle systolique (valeur supérieure)</t>
+          <t>La quantité de médicament prise? (vous pouvez l'écrire)</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>El bot registrará su presión arterial y frecuencia cardíaca actuales. Seleccione su presión arterial sistólica (valor superior)</t>
+          <t>¿Cuánto tomaste? (puedes escribir)</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Бот запише ваші показники тиску і пульсу на поточний момент. 
-Виберіть систолічний тиск (верхнє значення)</t>
+          <t>Кількість прийнятого? (можна написати)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Диастолическое давление (нижнее значение):</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr"/>
+          <t>Ну вот.|Ёмаё!|Тфу!|Ого, надеюсь, не слишком сильно!|Тысяча чертей!</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>NOTE list of frustration words. Used when user says he had a headache.
+Separate with '|'</t>
+        </is>
+      </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Diastolic pressure (lower value):</t>
+          <t>I'm sorry to hear that!|Crap!|Oh dear!|Ugh!|Oh come on!|Oh my goodness!|I hope the pain wasn't very strong!|I'm sorry to hear that...|I hope you're feeling better now!|Hang in there!|I'm here for you.</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Pression diastolique (valeur inférieure) :</t>
+          <t>Merde !|Oh mon Dieu !|Pouah !|Oh allez !|J'espère que la douleur n'était pas très forte !|Je suis désolé d'entendre ça... |J'espère que tu vas mieux maintenant !|Tiens bon !|Je suis là pour toi.</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Presión diastólica (valor inferior):</t>
+          <t>¡Lamento oír eso!|¡Mierda!|¡Dios mío!|¡Uf!|¡Oh, vamos!|¡Espero que el dolor no haya sido muy fuerte!|¡Lamento oír eso... |¡Espero que te sientas mejor ahora!|¡Aguanta!|Estoy aquí para ayudarte.</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Діастолічний тиск (нижнє значення):</t>
+          <t>Ну ось.|Черт!|Ой боже!|Тьфу!|Сподіваюся, біль був не дуже сильним!|Мені шкода це чути... |Сподіваюся, зараз тобі стало краще!|Тримайся!|Я тут для тебе.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Ваш пульс?</t>
+          <t>Когда?</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr"/>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>What's your heart rate?</t>
+          <t>When?</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Quelle est votre pouls ?</t>
+          <t>Quand?</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>¿Qué pulso tienes?</t>
+          <t>¿Cuando?</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Який у вас пульс?</t>
+          <t>Коли?</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Успешно добавлено!</t>
+          <t>Продолжительность в часах (можно написать):</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr"/>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Added successfully!</t>
+          <t>Duration in hours (you can write it):</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>Ajouté avec succès !</t>
+          <t>Durée en heures (vous pouvez l'écrire) :</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>¡Añadido con éxito!</t>
+          <t>Duración en horas (puedes escribir):</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Успішно додано!</t>
+          <t>Тривалість у годинах (можна записати):</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Дата приёма?</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>NOTE Date of a medication intake</t>
-        </is>
-      </c>
+          <t>Весь день</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr"/>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Date of intake?</t>
+          <t>All day</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Date de prise ?</t>
+          <t>Toute la journée</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>¿La fecha de tomar?</t>
+          <t>Todo el dia</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Дата прийому?</t>
+          <t>Весь день</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Что принимали? (можно написать)</t>
+          <t>Продолжительность должна быть числом, повторите ввод:</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr"/>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>What did you take? (you can write)</t>
+          <t>The duration should be a number, please try again:</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>Qu'avez-vous pris? (vous pouvez l'écrire)</t>
+          <t>La durée doit être un nombre, veuillez réessayer :</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>¿Qué medicación ha estado tomando? (puedes escribir)</t>
+          <t>La duración debe ser un número, inténtalo de nuevo:</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Що приймали? (можна написати)</t>
+          <t>Тривалість має бути числом, спробуйте ще раз:</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Сообщение не может быть пустым, повторите</t>
+          <t>Интенсивность от 1 до 10:</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr"/>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>The message cannot be blank, please try again</t>
+          <t>Intensity from 1 to 10:</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Le message ne peut pas être vide, veuillez réessayer</t>
+          <t>Intensité de 1 à 10 :</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>El mensaje no puede estar en blanco, inténtalo de nuevo</t>
+          <t>Intensidad de 1 a 10:</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Повідомлення не може бути порожнім, спробуйте ще раз</t>
+          <t>Інтенсивність від 1 до 10:</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Количество принятого? (можно написать)</t>
+          <t>Интенсивность должна быть числом, повторите ввод:</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr"/>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>How much did you take? (you can write)</t>
+          <t>The intensity should be a number, please try again:</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>La quantité de médicament prise? (vous pouvez l'écrire)</t>
+          <t>L'intensité doit être un nombre, veuillez réessayer :</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>¿Cuánto tomaste? (puedes escribir)</t>
+          <t>La intensidad debe ser un número, inténtalo de nuevo:</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>Кількість прийнятого? (можна написати)</t>
+          <t>Інтенсивність має бути числом, спробуйте ще раз:</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Ну вот.|Ёмаё!|Тфу!|Ого, надеюсь, не слишком сильно!|Тысяча чертей!</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>NOTE list of frustration words. Used when user says he had a headache.
-Separate with '|'</t>
-        </is>
-      </c>
+          <t>Была ли аура?</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr"/>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that!|Crap!|Oh dear!|Ugh!|Oh come on!|Oh my goodness!|I hope the pain wasn't very strong!|I'm sorry to hear that...|I hope you're feeling better now!|Hang in there!|I'm here for you.</t>
+          <t>Did you have an aura?</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>Merde !|Oh mon Dieu !|Pouah !|Oh allez !|J'espère que la douleur n'était pas très forte !|Je suis désolé d'entendre ça... |J'espère que tu vas mieux maintenant !|Tiens bon !|Je suis là pour toi.</t>
+          <t>Aviez-vous une aura ?</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>¡Lamento oír eso!|¡Mierda!|¡Dios mío!|¡Uf!|¡Oh, vamos!|¡Espero que el dolor no haya sido muy fuerte!|¡Lamento oír eso... |¡Espero que te sientas mejor ahora!|¡Aguanta!|Estoy aquí para ayudarte.</t>
+          <t>¿Tenías un aura?</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Ну ось.|Черт!|Ой боже!|Тьфу!|Сподіваюся, біль був не дуже сильним!|Мені шкода це чути... |Сподіваюся, зараз тобі стало краще!|Тримайся!|Я тут для тебе.</t>
+          <t>Чи була аура?</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Когда?</t>
+          <t xml:space="preserve">Неверный ответ, повторите: </t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr"/>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>When?</t>
+          <t xml:space="preserve">Incorrect answer, please try again: </t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>Quand?</t>
+          <t xml:space="preserve">Réponse incorrecte, veuillez réessayer : </t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>¿Cuando?</t>
+          <t xml:space="preserve">Respuesta incorrecta, inténtalo de nuevo: </t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Коли?</t>
+          <t xml:space="preserve">Неправильна відповідь, спробуйте ще раз: </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Продолжительность в часах (можно написать):</t>
+          <t>Выбери триггеры при наличии:</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr"/>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Duration in hours (you can write it):</t>
+          <t>Select triggers if you want:</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>Durée en heures (vous pouvez l'écrire) :</t>
+          <t>Sélectionnez vos déclencheurs de migraine:</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Duración en horas (puedes escribir):</t>
+          <t>Seleccione desencadenantes si lo desea:</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Тривалість у годинах (можна записати):</t>
+          <t>Оберіть тригери за наявності:</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Весь день</t>
+          <t>Были ли следующие симптомы?</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr"/>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>All day</t>
+          <t>Were the following symptoms present?</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Toute la journée</t>
+          <t>Les symptômes suivants étaient-ils présents ?</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Todo el dia</t>
+          <t>¿Estaban presentes los siguientes síntomas?</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>Весь день</t>
+          <t>Чи були такі симптоми?</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Продолжительность должна быть числом, повторите ввод:</t>
+          <t>Можно добавить ещё или нажать на "следующий вопрос"</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr"/>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>The duration should be a number, please try again:</t>
+          <t>You can add more or click on "next question"</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>La durée doit être un nombre, veuillez réessayer :</t>
+          <t>Vous pouvez en ajouter d'autres ou cliquer sur "question suivante"</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>La duración debe ser un número, inténtalo de nuevo:</t>
+          <t>Puedes agregar más o hacer clic en "siguiente pregunta"</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Тривалість має бути числом, спробуйте ще раз:</t>
+          <t>Можна додати ще або натиснути на "наступне запитання"</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Интенсивность от 1 до 10:</t>
+          <t>Принимались ли пилюли?</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr"/>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Intensity from 1 to 10:</t>
+          <t>Have the pills been taken?</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Intensité de 1 à 10 :</t>
+          <t>Les pilules ont-elles été prises ?</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Intensidad de 1 a 10:</t>
+          <t>¿Se han tomado las pastillas?</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Інтенсивність від 1 до 10:</t>
+          <t>Чи приймали таблетки?</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Интенсивность должна быть числом, повторите ввод:</t>
+          <t>Примечания, если имеются:</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr"/>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>The intensity should be a number, please try again:</t>
+          <t>Notes, if any:</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>L'intensité doit être un nombre, veuillez réessayer :</t>
+          <t>Remarques, le cas échéant :</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>La intensidad debe ser un número, inténtalo de nuevo:</t>
+          <t>Notas, si las hubiera:</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Інтенсивність має бути числом, спробуйте ще раз:</t>
+          <t>Примітки, якщо такі є:</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Была ли аура?</t>
+          <t>Название таблетки:</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr"/>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Did you have an aura?</t>
+          <t>Drug name:</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>Aviez-vous une aura ?</t>
+          <t>Nom du médicament :</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>¿Tenías un aura?</t>
+          <t>Nombre del medicamento:</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>Чи була аура?</t>
+          <t>Назва препарату:</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Неверный ответ, повторите: </t>
+          <t>Количество принятого в мг? (можно написать)</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr"/>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incorrect answer, please try again: </t>
+          <t>Amount taken in mg? (you can write)</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réponse incorrecte, veuillez réessayer : </t>
+          <t>Quantité prise en mg ?  (vous pouvez l'écrire) :</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Respuesta incorrecta, inténtalo de nuevo: </t>
+          <t>¿Cantidad tomada en mg? (puedes escribir)</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Неправильна відповідь, спробуйте ще раз: </t>
+          <t>Кількість прийнята в мг? (можна писати)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Выбери триггеры при наличии:</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr"/>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>Select triggers if you want:</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>Sélectionnez vos déclencheurs de migraine:</t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="inlineStr">
-        <is>
-          <t>Seleccione desencadenantes si lo desea:</t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="inlineStr">
-        <is>
-          <t>Оберіть тригери за наявності:</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>Были ли следующие симптомы?</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="inlineStr"/>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>Were the following symptoms present?</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Les symptômes suivants étaient-ils présents ?</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>¿Estaban presentes los siguientes síntomas?</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>Чи були такі симптоми?</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>Можно добавить ещё или нажать на "следующий вопрос"</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr"/>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>You can add more or click on "next question"</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>Vous pouvez en ajouter d'autres ou cliquer sur "question suivante"</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>Puedes agregar más o hacer clic en "siguiente pregunta"</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>Можна додати ще або натиснути на "наступне запитання"</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>Принимались ли пилюли?</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="inlineStr"/>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>Have the pills been taken?</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>Les pilules ont-elles été prises ?</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>¿Se han tomado las pastillas?</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>Чи приймали таблетки?</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Примечания, если имеются:</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr"/>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>Notes, if any:</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>Remarques, le cas échéant :</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>Notas, si las hubiera:</t>
-        </is>
-      </c>
-      <c r="F64" s="3" t="inlineStr">
-        <is>
-          <t>Примітки, якщо такі є:</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>Название таблетки:</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr"/>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>Drug name:</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>Nom du médicament :</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>Nombre del medicamento:</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t>Назва препарату:</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>Количество принятого в мг? (можно написать)</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr"/>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>Amount taken in mg? (you can write)</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>Quantité prise en mg ?  (vous pouvez l'écrire) :</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>¿Cantidad tomada en mg? (puedes escribir)</t>
-        </is>
-      </c>
-      <c r="F66" s="3" t="inlineStr">
-        <is>
-          <t>Кількість прийнята в мг? (можна писати)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Голова болела &lt;b&gt;{pain_date}&lt;/b&gt;
@@ -2343,8 +2151,8 @@
 </t>
         </is>
       </c>
-      <c r="B67" s="4" t="inlineStr"/>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr"/>
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Headache on &lt;b&gt;{pain_date}&lt;/b&gt;
@@ -2357,7 +2165,7 @@
 </t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mal de tête le &lt;b&gt;{pain_date}&lt;/b&gt;
@@ -2370,7 +2178,7 @@
 </t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dolor de cabeza el &lt;b&gt;{pain_date}&lt;/b&gt; 
@@ -2383,7 +2191,7 @@
 </t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Головний біль &lt;b&gt;{pain_date}&lt;/b&gt;
@@ -2397,143 +2205,349 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Аура была</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr"/>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>There was an aura</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Il y avait une aura</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>El aura era</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Була аура</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Ауры не было</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr"/>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>No aura</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Pas d'aura</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>No había aura</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>Без аури</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>не принимали</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr"/>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>didn't take</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>n'avez pas pris</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>no tomó</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>не приймали</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>запись бо-бо</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr"/>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>headache</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>mal de tête</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>dolor de cabeza</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>головний біль</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>приём лекарства</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr"/>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>medication intake</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>prise de médicaments</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>ingesta de medicamentos</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>прийом ліків</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>запись давления</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr"/>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>blood pressure record</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>enregistrement de la tension artérielle</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>registro de presión arterial</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>запис тиску</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>список лекарств</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr"/>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>list of medicines</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>liste des médicaments</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>lista de medicamentos</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>список ліків</t>
+        </is>
+      </c>
+    </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Аура была</t>
+          <t>изменить записи</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr"/>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>There was an aura</t>
+          <t>change records</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>Il y avait une aura</t>
+          <t>modifier les enregistrements</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>El aura era</t>
+          <t>modificar registros</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>Була аура</t>
+          <t>змінити записи</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Ауры не было</t>
+          <t>статистика</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr"/>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>No aura</t>
+          <t>statistics</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>Pas d'aura</t>
+          <t>statistiques</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>No había aura</t>
+          <t>estadísticas</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>Без аури</t>
+          <t>статистика</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>не принимали</t>
+          <t>настройки</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr"/>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>didn't take</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>n'avez pas pris</t>
+          <t>paramètres</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>no tomó</t>
+          <t>ajustes</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>не приймали</t>
+          <t>налаштування</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Да :(</t>
+          <t>Bot for tracking headache, medications intake and pressure. For support message the bot directly.</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr"/>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Yeap :(</t>
+          <t>Bot for tracking headache, medications intake and pressure. For support message the bot directly.</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>Ouais :(</t>
+          <t>Bot pour suivre les maux de tête, les médicaments et la pression. Pour le support, envoyez un message directement au bot</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>Sí :(</t>
+          <t>Bot para el seguimiento de dolores de cabeza, medicamentos y presión. Para soporte, envíe un mensaje directamente al bot.</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Ага :(</t>
+          <t>Бот для ведення щоденника головних болей, прийому ліків та тиску. Для зв'язку пишіть прямо в бот.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Нет, всё хорошо! / Уже добавлено</t>
+          <t>This bot is intended for tracking headaches.
+It will track when your head hurt, what medications were taken, your blood pressure, and will also ask about possible triggers and symptoms.
+For support and bug reports — message the bot directly.</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr"/>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>No, it's okay! / Already added</t>
+          <t>This bot is intended for tracking headaches.
+It will track when your head hurt, what medications were taken, your blood pressure, and will also ask about possible triggers and symptoms.
+For support and bug reports — message the bot directly.</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>Non c'est bon! / Déjà ajouté</t>
+          <t>Ce bot est destiné à suivre les maux de tête.
+Il suivra quand votre tête vous faisait mal, quels médicaments ont été pris, votre tension artérielle, et demandera également des informations sur les déclencheurs possibles et les symptômes.
+Pour le support et les rapports de bogues — envoyez un message directement au bot.</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>¡No, está bien! / Ya añadido</t>
+          <t>Este bot está destinado a rastrear dolores de cabeza.
+Seguirá cuándo le dolía la cabeza, qué medicamentos se tomaron, su presión arterial, y también preguntará sobre posibles desencadenantes y síntomas.
+Para soporte y reportes de errores — envíe un mensaje directamente al bot.</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>Ні, все добре! / Вже додано</t>
+          <t>Цей бот призначений для ведення щоденника головних болей.
+Він буде відстежувати, коли боліла голова, які медикаменти приймалися, ваш тиск, а також запитає про можливі тригери та проявлявшіся симптоми.
+Для зв'язку та повідомлень про помилки — пишіть прямо в бота.</t>
         </is>
       </c>
     </row>
@@ -3529,817 +3543,855 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Количество дней с головной болью:</t>
+          <t xml:space="preserve">╳ - головная боль
+⁘ - приём лекарства
+</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr"/>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Days with headache:</t>
+          <t xml:space="preserve">╳ - headache
+⁘ - medication intake
+</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Nombre de jours avec maux de tête :</t>
+          <t xml:space="preserve">╳ - maux de tête
+⁘ - prise de médicaments
+</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Número de días con dolor de cabeza:</t>
+          <t xml:space="preserve">╳ - dolor de cabeza
+⁘ - tomar medicamentos
+</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>Кількість днів з головним болем:</t>
+          <t xml:space="preserve">╳ - головний біль
+⁘ - приймання ліків
+</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Количество дней приёма лекарств:</t>
+          <t>Количество дней с головной болью:</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr"/>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Days with medications taken:</t>
+          <t>Days with headache:</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Le nombre de jours de prise de médicaments :</t>
+          <t>Nombre de jours avec maux de tête :</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>El número de días de administración de la medicación:</t>
+          <t>Número de días con dolor de cabeza:</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>Кількість днів приймання ліків:</t>
+          <t>Кількість днів з головним болем:</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Приняты лекарства: {n_meds} шт.</t>
+          <t>Количество дней приёма лекарств:</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr"/>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Medications taken: {n_meds} pcs.</t>
+          <t>Days with medications taken:</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Médicaments pris : {n_meds} pcs.</t>
+          <t>Le nombre de jours de prise de médicaments :</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Medicación tomada: {n_meds} pcs.</t>
+          <t>El número de días de administración de la medicación:</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>Прийнято ліки: {n_meds} шт.</t>
+          <t>Кількість днів приймання ліків:</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Без лекарств</t>
+          <t>Приняты лекарства: {n_meds} шт.</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr"/>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>No medications</t>
+          <t>Medications taken: {n_meds} pcs.</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Sans médicaments</t>
+          <t>Médicaments pris : {n_meds} pcs.</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Sin medicación</t>
+          <t>Medicación tomada: {n_meds} pcs.</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>Без ліків</t>
+          <t>Прийнято ліки: {n_meds} шт.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Головная боль:&lt;/b&gt; {durability} ч. | {intensity} из 10 | {medicine_text}</t>
+          <t>Без лекарств</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr"/>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Headache:&lt;/b&gt; {durability} h. | {intensity} of 10 | {medicine_text}</t>
+          <t>No medications</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Maux de tête:&lt;/b&gt; {durability} h. | {intensity} de 10 | {medicine_text}</t>
+          <t>Sans médicaments</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Dolor de cabeza:&lt;/b&gt; {durability} h. | {intensity} de 10 | {medicine_text}</t>
+          <t>Sin medicación</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Головний біль:&lt;/b&gt; {durability} ч. | {intensity} з 10 | {medicine_text}</t>
+          <t>Без ліків</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Приём лекарства:&lt;/b&gt; {amount} {drugname}</t>
+          <t>&lt;b&gt;Головная боль:&lt;/b&gt; {durability} ч. | {intensity} из 10 | {medicine_text}</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr"/>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Medication intake:&lt;/b&gt; {amount} {drugname}</t>
+          <t>&lt;b&gt;Headache:&lt;/b&gt; {durability} h. | {intensity} of 10 | {medicine_text}</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Prise de médicaments:&lt;/b&gt; {amount} {drugname}</t>
+          <t>&lt;b&gt;Maux de tête:&lt;/b&gt; {durability} h. | {intensity} de 10 | {medicine_text}</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Medicación:&lt;/b&gt; {amount} {drugname}</t>
+          <t>&lt;b&gt;Dolor de cabeza:&lt;/b&gt; {durability} h. | {intensity} de 10 | {medicine_text}</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Прийом ліків:&lt;/b&gt; {amount} {drugname}</t>
+          <t>&lt;b&gt;Головний біль:&lt;/b&gt; {durability} ч. | {intensity} з 10 | {medicine_text}</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Давление:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
+          <t>&lt;b&gt;Приём лекарства:&lt;/b&gt; {amount} {drugname}</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr"/>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Pressure:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
+          <t>&lt;b&gt;Medication intake:&lt;/b&gt; {amount} {drugname}</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Tension artérielle:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
+          <t>&lt;b&gt;Prise de médicaments:&lt;/b&gt; {amount} {drugname}</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Presión:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
+          <t>&lt;b&gt;Medicación:&lt;/b&gt; {amount} {drugname}</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Тиск:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
+          <t>&lt;b&gt;Прийом ліків:&lt;/b&gt; {amount} {drugname}</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Нет записей на &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>&lt;b&gt;Давление:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr"/>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>No records on &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>&lt;b&gt;Pressure:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>Aucune entrée le &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>&lt;b&gt;Tension artérielle:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>No hay entradas en &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>&lt;b&gt;Presión:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>Немає записів на &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>&lt;b&gt;Тиск:&lt;/b&gt; {systolic}/{diastolic} {pulse}</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Удаление записей за &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>Нет записей на &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr"/>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Deleting records for &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>No records on &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>Suppression des enregistrements pour &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>Aucune entrée le &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Eliminación de registros para &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>No hay entradas en &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>Видалення записів за &lt;b&gt;{date_str}&lt;/b&gt;</t>
+          <t>Немає записів на &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Запись не найдена</t>
+          <t>Удаление записей за &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr"/>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>No record found</t>
+          <t>Deleting records for &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Aucun enregistrement n'a été trouvé</t>
+          <t>Suppression des enregistrements pour &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>No se ha encontrado ningún registro</t>
+          <t>Eliminación de registros para &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>Запис не знайдено</t>
+          <t>Видалення записів за &lt;b&gt;{date_str}&lt;/b&gt;</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Запись удалена</t>
+          <t>Запись не найдена</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr"/>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Record deleted</t>
+          <t>No record found</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>Enregistrement supprimé</t>
+          <t>Aucun enregistrement n'a été trouvé</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Registro eliminado</t>
+          <t>No se ha encontrado ningún registro</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>Запис видалено</t>
+          <t>Запис не знайдено</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Отменено</t>
+          <t>Запись удалена</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr"/>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Cancelled</t>
+          <t>Record deleted</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Annulé</t>
+          <t>Enregistrement supprimé</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>Cancelado</t>
+          <t>Registro eliminado</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>Скасовано</t>
+          <t>Запис видалено</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Уже на последней странице</t>
+          <t>Отменено</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr"/>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Already on the last page</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>Déjà sur la dernière page</t>
+          <t>Annulé</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Ya en la ultima pagina</t>
+          <t>Cancelado</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>Вже на останній сторінці</t>
+          <t>Скасовано</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Дата не может быть в будущем</t>
+          <t>Уже на последней странице</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr"/>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Date cannot be in future</t>
+          <t>Already on the last page</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>La date ne peut être dans le futur</t>
+          <t>Déjà sur la dernière page</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>La fecha no puede ser en el futuro</t>
+          <t>Ya en la ultima pagina</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>Дата не може бути в майбутньому</t>
+          <t>Вже на останній сторінці</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Функция пока не реализована</t>
+          <t>Дата не может быть в будущем</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr"/>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>The function has not yet been implemented</t>
+          <t>Date cannot be in future</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>La fonction n'a pas encore été mise en œuvre</t>
+          <t>La date ne peut être dans le futur</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>La función aún no se ha implementado</t>
+          <t>La fecha no puede ser en el futuro</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>Функція ще не реалізована</t>
+          <t>Дата не може бути в майбутньому</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Добавить лекарство</t>
+          <t>Функция пока не реализована</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr"/>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Add medication</t>
+          <t>The function has not yet been implemented</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Ajouter des médicaments</t>
+          <t>La fonction n'a pas encore été mise en œuvre</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Agregar medicación</t>
+          <t>La función aún no se ha implementado</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>Додати ліки</t>
+          <t>Функція ще не реалізована</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Удалить лекарство</t>
+          <t>Добавить лекарство</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr"/>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Delete medication</t>
+          <t>Add medication</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>Supprimer le médicament</t>
+          <t>Ajouter des médicaments</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Eliminar medicación</t>
+          <t>Agregar medicación</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
         <is>
-          <t>Видалити ліки</t>
+          <t>Додати ліки</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Список добавленных лекарств:</t>
+          <t>Удалить лекарство</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr"/>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>List of added medications:</t>
+          <t>Delete medication</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>Liste des médicaments ajoutés :</t>
+          <t>Supprimer le médicament</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Lista de medicamentos agregados:</t>
+          <t>Eliminar medicación</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>Список доданих препаратів:</t>
+          <t>Видалити ліки</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Вы ещё не добавили ни одного лекарства</t>
+          <t>Список добавленных лекарств:</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr"/>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>You haven't added any medications yet</t>
+          <t>List of added medications:</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>Vous n'avez pas encore ajouté de médicaments</t>
+          <t>Liste des médicaments ajoutés :</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Aún no has agregado ningún medicamento</t>
+          <t>Lista de medicamentos agregados:</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>Ви ще не додали жодних ліків</t>
+          <t>Список доданих препаратів:</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Удаляем лекарство под номером:</t>
+          <t>Вы ещё не добавили ни одного лекарства</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr"/>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Remove the drug under the number:</t>
+          <t>You haven't added any medications yet</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>Retirez le médicament sous le numéro :</t>
+          <t>Vous n'avez pas encore ajouté de médicaments</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>Retire el medicamento bajo el número:</t>
+          <t>Aún no has agregado ningún medicamento</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>Видаляємо ліки під номером:</t>
+          <t>Ви ще не додали жодних ліків</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Язык 🇷🇺🇺🇦🇬🇧🇫🇷🇪🇸</t>
+          <t>Удаляем лекарство под номером:</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr"/>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Language 🇬🇧🇷🇺🇺🇦🇫🇷🇪🇸</t>
+          <t>Remove the drug under the number:</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Langue 🇫🇷🇬🇧🇷🇺🇺🇦🇪🇸</t>
+          <t>Retirez le médicament sous le numéro :</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Idioma 🇪🇸🇬🇧🇷🇺🇺🇦🇫🇷</t>
+          <t>Retire el medicamento bajo el número:</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
         <is>
-          <t>Мова 🇺🇦🇬🇧🇷🇺🇫🇷🇪🇸</t>
+          <t>Видаляємо ліки під номером:</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Часовой пояс</t>
+          <t>Язык 🇷🇺🇺🇦🇬🇧🇫🇷🇪🇸</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr"/>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Timezone</t>
+          <t>Language 🇬🇧🇷🇺🇺🇦🇫🇷🇪🇸</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Fuseau horaire</t>
+          <t>Langue 🇫🇷🇬🇧🇷🇺🇺🇦🇪🇸</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>Zona horaria</t>
+          <t>Idioma 🇪🇸🇬🇧🇷🇺🇺🇦🇫🇷</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>Часовий пояс</t>
+          <t>Мова 🇺🇦🇬🇧🇷🇺🇫🇷🇪🇸</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Время оповещений</t>
+          <t>Часовой пояс</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr"/>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Notification time</t>
+          <t>Timezone</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Heure de notification</t>
+          <t>Fuseau horaire</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Hora de notificación</t>
+          <t>Zona horaria</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>Час сповіщення</t>
+          <t>Часовий пояс</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Частота оповещений</t>
+          <t>Время оповещений</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr"/>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Notification frequency</t>
+          <t>Notification time</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Fréquence des notifications</t>
+          <t>Heure de notification</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>Frecuencia de notificación</t>
+          <t>Hora de notificación</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>Частота повідомлень</t>
+          <t>Час сповіщення</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>оповещения отключены</t>
+          <t>Частота оповещений</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr"/>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>notifications disabled</t>
+          <t>Notification frequency</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>notifications désactivées</t>
+          <t>Fréquence des notifications</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>notificaciones deshabilitadas</t>
+          <t>Frecuencia de notificación</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>сповіщення вимкнено</t>
+          <t>Частота повідомлень</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>ежедневно</t>
+          <t>оповещения отключены</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr"/>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>notifications disabled</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>tous les jours</t>
+          <t>notifications désactivées</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>a diario</t>
+          <t>notificaciones deshabilitadas</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>щодня</t>
+          <t>сповіщення вимкнено</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>через день</t>
+          <t>ежедневно</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr"/>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>once every 2 days</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>une fois tous les 2 jours</t>
+          <t>tous les jours</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>una vez cada 2 días</t>
+          <t>a diario</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>раз на 2 дні</t>
+          <t>щодня</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>1 раз в 3 дня</t>
+          <t>через день</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr"/>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>once every 3 days</t>
+          <t>once every 2 days</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>une fois tous les 3 jours</t>
+          <t>une fois tous les 2 jours</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>una vez cada 3 días</t>
+          <t>una vez cada 2 días</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>раз на 3 дні</t>
+          <t>раз на 2 дні</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>еженедельно</t>
+          <t>1 раз в 3 дня</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr"/>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>weekly</t>
+          <t>once every 3 days</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>hebdomadaire</t>
+          <t>une fois tous les 3 jours</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>semanalmente</t>
+          <t>una vez cada 3 días</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>щотижня</t>
+          <t>раз на 3 дні</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>еженедельно</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr"/>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>hebdomadaire</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>semanalmente</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>щотижня</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>Текущий язык: &lt;b&gt;{language}&lt;/b&gt;
 Часовой пояс: &lt;b&gt;{timezone} {utc_offset_formatted}&lt;/b&gt;
@@ -4347,8 +4399,8 @@
 Частота оповещений: &lt;b&gt;{notification_period}&lt;/b&gt;</t>
         </is>
       </c>
-      <c r="B137" s="4" t="inlineStr"/>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="B138" s="4" t="inlineStr"/>
+      <c r="C138" s="3" t="inlineStr">
         <is>
           <t>Language: &lt;b&gt;{language}&lt;/b&gt;
 Time zone: &lt;b&gt;{timezone} {utc_offset_formatted}&lt;/b&gt;
@@ -4356,7 +4408,7 @@
 Notification frequency: &lt;b&gt;{notification_period}&lt;/b&gt;</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D138" s="3" t="inlineStr">
         <is>
           <t>Langue : &lt;b&gt;{language}&lt;/b&gt; 
 Fuseau horaire : &lt;b&gt;{timezone} {utc_offset_formatted}&lt;/b&gt; 
@@ -4364,7 +4416,7 @@
 Fréquence de notification : &lt;b&gt;{notification_period} &lt;/b&gt;</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
+      <c r="E138" s="3" t="inlineStr">
         <is>
           <t>Idioma: &lt;b&gt;{language}&lt;/b&gt; 
 Zona horaria: &lt;b&gt;{timezone} {utc_offset_formatted}&lt;/b&gt; 
@@ -4372,7 +4424,7 @@
 Frecuencia de notificación: &lt;b&gt;{notification_period} &lt;/b&gt;</t>
         </is>
       </c>
-      <c r="F137" s="3" t="inlineStr">
+      <c r="F138" s="3" t="inlineStr">
         <is>
           <t>Мова: &lt;b&gt;{language}&lt;/b&gt; 
 Часовий пояс: &lt;b&gt;{timezone} {utc_offset_formatted}&lt;/b&gt; 
@@ -4381,576 +4433,578 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="3" t="inlineStr">
-        <is>
-          <t>Выберите язык:</t>
-        </is>
-      </c>
-      <c r="B138" s="4" t="inlineStr"/>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>Select a language:</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t>Sélectionnez une langue:</t>
-        </is>
-      </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>Selecciona un idioma:</t>
-        </is>
-      </c>
-      <c r="F138" s="3" t="inlineStr">
-        <is>
-          <t>Виберіть мову:</t>
-        </is>
-      </c>
-    </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Поделиться геолокацией</t>
+          <t>Выберите язык:</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr"/>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Sharing location</t>
+          <t>Select a language:</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>Partager la géolocalisation</t>
+          <t>Sélectionnez une langue:</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>Compartir geolocalización</t>
+          <t>Selecciona un idioma:</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>Обмін геоданими</t>
+          <t>Виберіть мову:</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Выбрать из списка</t>
+          <t>Поделиться геолокацией</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr"/>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Choose from the list</t>
+          <t>Sharing location</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>Sélectionner dans la liste</t>
+          <t>Partager la géolocalisation</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Seleccionar de la lista</t>
+          <t>Compartir geolocalización</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>Виберіть зі списку</t>
+          <t>Обмін геоданими</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Способ изменения часового пояса:</t>
+          <t>Выбрать из списка</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr"/>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Change the time zone by:</t>
+          <t>Choose from the list</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>Changez le fuseau horaire en :</t>
+          <t>Sélectionner dans la liste</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>Una forma de cambiar la zona horaria:</t>
+          <t>Seleccionar de la lista</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>Спосіб зміни часового поясу:</t>
+          <t>Виберіть зі списку</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Поделиться геолокацией 📍</t>
+          <t>Способ изменения часового пояса:</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr"/>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Share location 📍</t>
+          <t>Change the time zone by:</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>Partager la géolocalisation 📍</t>
+          <t>Changez le fuseau horaire en :</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Compartir geolocalización 📍</t>
+          <t>Una forma de cambiar la zona horaria:</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>Поділитися геолокацією 📍</t>
+          <t>Спосіб зміни часового поясу:</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Не удалось определить часовой пояс по геолокации, попробуйте другой способ</t>
+          <t>Поделиться геолокацией 📍</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr"/>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Could not determine time zone by geolocation, please try another method</t>
+          <t>Share location 📍</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>Impossible de déterminer le fuseau horaire par géolocalisation, veuillez essayer une autre méthode</t>
+          <t>Partager la géolocalisation 📍</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>No se ha podido determinar la zona horaria por geolocalización, pruebe otro método</t>
+          <t>Compartir geolocalización 📍</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>Не вдалося визначити часовий пояс за геолокацією, спробуйте інший спосіб</t>
+          <t>Поділитися геолокацією 📍</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Нет нужного</t>
-        </is>
-      </c>
-      <c r="B144" s="4" t="inlineStr">
-        <is>
-          <t>NOTE all suggested timezones are wrong</t>
-        </is>
-      </c>
+          <t>Не удалось определить часовой пояс по геолокации, попробуйте другой способ</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr"/>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>None of the above</t>
+          <t>Could not determine time zone by geolocation, please try another method</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>Il n'y a pas de bonne solution</t>
+          <t>Impossible de déterminer le fuseau horaire par géolocalisation, veuillez essayer une autre méthode</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>No hay una correcta</t>
+          <t>No se ha podido determinar la zona horaria por geolocalización, pruebe otro método</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>Немає потрібного</t>
+          <t>Не вдалося визначити часовий пояс за геолокацією, спробуйте інший спосіб</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Найдено несколько часовых поясов, выберите нужный:</t>
-        </is>
-      </c>
-      <c r="B145" s="4" t="inlineStr"/>
+          <t>Нет нужного</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>NOTE all suggested timezones are wrong</t>
+        </is>
+      </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Several time zones are found, please select the right one:</t>
+          <t>None of the above</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>Plusieurs fuseaux horaires sont trouvés, sélectionnez le bon :</t>
+          <t>Il n'y a pas de bonne solution</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Se encuentran varias zonas horarias, por favor seleccione la deseada:</t>
+          <t>No hay una correcta</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>Знайдено кілька часових поясів, виберіть потрібний:</t>
+          <t>Немає потрібного</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Европа</t>
+          <t>Найдено несколько часовых поясов, выберите нужный:</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr"/>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Several time zones are found, please select the right one:</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Plusieurs fuseaux horaires sont trouvés, sélectionnez le bon :</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Se encuentran varias zonas horarias, por favor seleccione la deseada:</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
         <is>
-          <t>Європа</t>
+          <t>Знайдено кілька часових поясів, виберіть потрібний:</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Азия</t>
+          <t>Европа</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr"/>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Asie</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Europa</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>Азії</t>
+          <t>Європа</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Северная Америка</t>
+          <t>Азия</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr"/>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>Amérique du Nord</t>
+          <t>Asie</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Norteamérica</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>Північна Америка</t>
+          <t>Азії</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Южная Америка</t>
+          <t>Северная Америка</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr"/>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>Amérique du Sud</t>
+          <t>Amérique du Nord</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>Sudamérica</t>
+          <t>Norteamérica</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>Південна Америка</t>
+          <t>Північна Америка</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Африка</t>
+          <t>Южная Америка</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr"/>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>Afrique</t>
+          <t>Amérique du Sud</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>África</t>
+          <t>Sudamérica</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>Африка</t>
+          <t>Південна Америка</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Океания</t>
+          <t>Африка</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr"/>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>Océanie</t>
+          <t>Afrique</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>Oceanía</t>
+          <t>África</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>Океанія</t>
+          <t>Африка</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Выберите континент:</t>
+          <t>Океания</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr"/>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Choose a continent:</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>Sélectionnez un continent :</t>
+          <t>Océanie</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Seleccione un continente:</t>
+          <t>Oceanía</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>Виберіть континент:</t>
+          <t>Океанія</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Выберите страну:{countries_rows}</t>
+          <t>Выберите континент:</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr"/>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Select a country:{countries_rows}</t>
+          <t>Choose a continent:</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>Sélectionnez un pays :{countries_rows}</t>
+          <t>Sélectionnez un continent :</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>Seleccione un país:{countries_rows}</t>
+          <t>Seleccione un continente:</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>Виберіть країну:{countries_rows}</t>
+          <t>Виберіть континент:</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
+          <t>Выберите страну:{countries_rows}</t>
+        </is>
+      </c>
+      <c r="B154" s="4" t="inlineStr"/>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Select a country:{countries_rows}</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>Sélectionnez un pays :{countries_rows}</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Seleccione un país:{countries_rows}</t>
+        </is>
+      </c>
+      <c r="F154" s="3" t="inlineStr">
+        <is>
+          <t>Виберіть країну:{countries_rows}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
           <t>Выберите часовой пояс:
 {tzs_rows}</t>
         </is>
       </c>
-      <c r="B154" s="4" t="inlineStr"/>
-      <c r="C154" s="3" t="inlineStr">
+      <c r="B155" s="4" t="inlineStr"/>
+      <c r="C155" s="3" t="inlineStr">
         <is>
           <t>Select a time zone:
 {tzs_rows}</t>
         </is>
       </c>
-      <c r="D154" s="3" t="inlineStr">
+      <c r="D155" s="3" t="inlineStr">
         <is>
           <t>Sélectionnez un fuseau horaire :
 {tzs_rows}</t>
         </is>
       </c>
-      <c r="E154" s="3" t="inlineStr">
+      <c r="E155" s="3" t="inlineStr">
         <is>
           <t>Seleccione una zona horaria: 
 {tzs_rows}</t>
         </is>
       </c>
-      <c r="F154" s="3" t="inlineStr">
+      <c r="F155" s="3" t="inlineStr">
         <is>
           <t>Виберіть часовий пояс:
 {tzs_rows}</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>до полудня</t>
-        </is>
-      </c>
-      <c r="B155" s="4" t="inlineStr"/>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>before noon</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
-        <is>
-          <t>avant midi</t>
-        </is>
-      </c>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>antes del mediodía</t>
-        </is>
-      </c>
-      <c r="F155" s="3" t="inlineStr">
-        <is>
-          <t>до полудня</t>
-        </is>
-      </c>
-    </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>после полудня</t>
+          <t>до полудня</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr"/>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>before noon</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>après-midi</t>
+          <t>avant midi</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>por la tarde</t>
+          <t>antes del mediodía</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>після полудня</t>
+          <t>до полудня</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>после полудня</t>
+        </is>
+      </c>
+      <c r="B157" s="4" t="inlineStr"/>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>après-midi</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>por la tarde</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>після полудня</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="inlineStr">
         <is>
           <t>Бот в определённое время будет спрашивать, болела ли голова.
 Когда лучше об этом спрашивать?
 &lt;b&gt;(Текущее время оповещений - {local_notify_at})&lt;/b&gt;</t>
         </is>
       </c>
-      <c r="B157" s="4" t="inlineStr"/>
-      <c r="C157" s="3" t="inlineStr">
+      <c r="B158" s="4" t="inlineStr"/>
+      <c r="C158" s="3" t="inlineStr">
         <is>
           <t>The bot can ask at a certain time if you have had a headache.
 When is the best time to ask?
 &lt;b&gt;(Current notification time - {local_notify_at})&lt;/b&gt;</t>
         </is>
       </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="D158" s="3" t="inlineStr">
         <is>
           <t>Le bot vous demandera à certains moments si vous avez mal à la tête.
 Quel est le meilleur moment pour le demander ? 
 &lt;b&gt;(Heure de notification actuelle – {local_notify_at})&lt;/b&gt;</t>
         </is>
       </c>
-      <c r="E157" s="3" t="inlineStr">
-        <is>
-          <t>El bot puede preguntar en un momento determinado si has tenido dolor de cabeza. ¿Cuándo es el mejor momento para preguntar? &lt;b&gt;(Hora de notificación actual: {local_notify_at})&lt;/b&gt;</t>
-        </is>
-      </c>
-      <c r="F157" s="3" t="inlineStr">
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>El bot puede preguntar en un momento determinado si has tenido dolor de cabeza.
+¿Cuándo es el mejor momento para preguntar?
+&lt;b&gt;(Hora de notificación actual: {local_notify_at})&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F158" s="3" t="inlineStr">
         <is>
           <t>Бот у певний час запитуватиме, чи боліла голова.
 Коли краще про це запитувати?
@@ -4958,150 +5012,122 @@
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="3" t="inlineStr">
-        <is>
-          <t>12 (полдень)</t>
-        </is>
-      </c>
-      <c r="B158" s="4" t="inlineStr"/>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>12 (noon)</t>
-        </is>
-      </c>
-      <c r="D158" s="3" t="inlineStr">
-        <is>
-          <t>12 (midi)</t>
-        </is>
-      </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>12 (mediodía)</t>
-        </is>
-      </c>
-      <c r="F158" s="3" t="inlineStr">
-        <is>
-          <t>12 (опівдні)</t>
-        </is>
-      </c>
-    </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>12 (полночь)</t>
+          <t>12 (полдень)</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr"/>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>12 (midnight)</t>
+          <t>12 (noon)</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>12 (minuit)</t>
+          <t>12 (midi)</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>12 (medianoche)</t>
+          <t>12 (mediodía)</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>12 (опівночі)</t>
+          <t>12 (опівдні)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Выберите время оповещений:</t>
+          <t>12 (полночь)</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr"/>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Select the notification time:</t>
+          <t>12 (midnight)</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>Sélectionnez l'heure de notification :</t>
+          <t>12 (minuit)</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Seleccione la hora de notificación:</t>
+          <t>12 (medianoche)</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>Виберіть час сповіщення:</t>
+          <t>12 (опівночі)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> день</t>
+          <t>Выберите время оповещений:</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr"/>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> day</t>
+          <t>Select the notification time:</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jour</t>
+          <t>Sélectionnez l'heure de notification :</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> día</t>
+          <t>Seleccione la hora de notificación:</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> день</t>
+          <t>Виберіть час сповіщення:</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> дня</t>
+          <t xml:space="preserve"> день</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr"/>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> days</t>
+          <t xml:space="preserve"> day</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jours</t>
+          <t xml:space="preserve"> jour</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> días</t>
+          <t xml:space="preserve"> día</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> днів</t>
+          <t xml:space="preserve"> день</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> дней</t>
+          <t xml:space="preserve"> дня</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr"/>
@@ -5129,541 +5155,570 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Текущий период оповещений пока не назначен</t>
+          <t xml:space="preserve"> дней</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr"/>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>The current notification period has not yet been assigned</t>
+          <t xml:space="preserve"> days</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>Le délai de notification actuel n'a pas encore été attribué</t>
+          <t xml:space="preserve"> jours</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Aún no se ha asignado el plazo de notificación actual</t>
+          <t xml:space="preserve"> días</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>Поточний період повiдомлень поки що не призначений</t>
+          <t xml:space="preserve"> днів</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Текущая частота оповещения - 1 раз в {period_text}</t>
+          <t>Текущий период оповещений пока не назначен</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr"/>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Current notification frequency - 1 time per {period_text}</t>
+          <t>The current notification period has not yet been assigned</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>Fréquence de notification actuelle : 1 fois par {period_text}</t>
+          <t>Le délai de notification actuel n'a pas encore été attribué</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>Frecuencia de notificación actual: 1 vez por {period_text}</t>
+          <t>Aún no se ha asignado el plazo de notificación actual</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>Поточна частота повiдомлень - 1 раз на {period_text}</t>
+          <t>Поточний період повiдомлень поки що не призначений</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
+          <t>Текущая частота оповещения - 1 раз в {period_text}</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr"/>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Current notification frequency - 1 time per {period_text}</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>Fréquence de notification actuelle : 1 fois par {period_text}</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>Frecuencia de notificación actual: 1 vez por {period_text}</t>
+        </is>
+      </c>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
+          <t>Поточна частота повiдомлень - 1 раз на {period_text}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
           <t>Выбери период опроса (сообщения будут отправляться 1 раз в ...)
 {text_notif_period}</t>
         </is>
       </c>
-      <c r="B166" s="4" t="inlineStr"/>
-      <c r="C166" s="3" t="inlineStr">
+      <c r="B167" s="4" t="inlineStr"/>
+      <c r="C167" s="3" t="inlineStr">
         <is>
           <t>Select the notification period (messages will be sent once every ...)
 {text_notif_period}</t>
         </is>
       </c>
-      <c r="D166" s="3" t="inlineStr">
+      <c r="D167" s="3" t="inlineStr">
         <is>
           <t>Sélectionnez la période de notification (les messages seront envoyés une fois tous les ...) 
 {text_notif_period}</t>
         </is>
       </c>
-      <c r="E166" s="3" t="inlineStr">
+      <c r="E167" s="3" t="inlineStr">
         <is>
           <t>Seleccione el período de notificación (los mensajes se enviarán una vez cada...) 
 {text_notif_period}</t>
         </is>
       </c>
-      <c r="F166" s="3" t="inlineStr">
-        <is>
-          <t>Виберіть період повiдомлень (повідомлення надсилатимуться кожні ...) {text_notif_period}</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="3" t="inlineStr">
-        <is>
-          <t>6 месяцев</t>
-        </is>
-      </c>
-      <c r="B167" s="4" t="inlineStr"/>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>6 months</t>
-        </is>
-      </c>
-      <c r="D167" s="3" t="inlineStr">
-        <is>
-          <t>6 mois</t>
-        </is>
-      </c>
-      <c r="E167" s="3" t="inlineStr">
-        <is>
-          <t>6 meses</t>
-        </is>
-      </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>6 місяців</t>
+          <t>Виберіть період повiдомлень (повідомлення надсилатимуться кожні ...)
+{text_notif_period}</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>1 год</t>
+          <t>6 месяцев</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr"/>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>1 year</t>
+          <t>6 months</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>1 an</t>
+          <t>6 mois</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>1 año</t>
+          <t>6 meses</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>1 рік</t>
+          <t>6 місяців</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Статистика головных болей</t>
+          <t>1 год</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr"/>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Headaches statistics</t>
+          <t>1 year</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
         <is>
-          <t>Statistiques sur les maux de tête</t>
+          <t>1 an</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>Estadísticas de dolores de cabeza</t>
+          <t>1 año</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>Статистика головних болів</t>
+          <t>1 рік</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Статистика приёма лекарств</t>
+          <t>Статистика головных болей</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr"/>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Medications intake statistics</t>
+          <t>Headaches statistics</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>Statistiques sur la prise de médicaments</t>
+          <t>Statistiques sur les maux de tête</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Estadísticas de ingesta de medicamentos</t>
+          <t>Estadísticas de dolores de cabeza</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>Статистика прийому ліків</t>
+          <t>Статистика головних болів</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Статистика давления</t>
+          <t>Статистика приёма лекарств</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr"/>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Blood pressure statistics</t>
+          <t>Medications intake statistics</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>Statistiques de tension artérielle</t>
+          <t>Statistiques sur la prise de médicaments</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>Estadísticas de presión arterial</t>
+          <t>Estadísticas de ingesta de medicamentos</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>Статистика артеріального тиску</t>
+          <t>Статистика прийому ліків</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Общий отчёт PDF</t>
+          <t>Статистика давления</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr"/>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>General PDF report</t>
+          <t>Blood pressure statistics</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>Rapport PDF général</t>
+          <t>Statistiques de tension artérielle</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Informe general en PDF</t>
+          <t>Estadísticas de presión arterial</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>Загальний звіт PDF</t>
+          <t>Статистика артеріального тиску</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Здесь можно выгрузить статистику по головным болям и приёму лекарств в Excel формате или сгенерировать общий отчёт в PDF</t>
+          <t>Общий отчёт PDF</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr"/>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Here you can download statistics on headaches and medications intake in Excel format or generate a general report in PDF</t>
+          <t>General PDF report</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>Ici, vous pouvez télécharger des statistiques sur les maux de tête et la prise de médicaments au format Excel ou générer un rapport général au format PDF</t>
+          <t>Rapport PDF général</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>Aquí puedes descargar estadísticas de dolores de cabeza y ingesta de medicamentos en formato Excel o generar un informe general en PDF</t>
+          <t>Informe general en PDF</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>Тут ви можете завантажити статистику про головні болі та прийом ліків у форматі Excel або створити загальний звіт у форматі PDF</t>
+          <t>Загальний звіт PDF</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Статистика головных болей за:</t>
+          <t>Здесь можно выгрузить статистику по головным болям и приёму лекарств в Excel формате или сгенерировать общий отчёт в PDF</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr"/>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Headache statistics for:</t>
+          <t>Here you can download statistics on headaches and medications intake in Excel format or generate a general report in PDF</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>Statistiques sur les maux de tête pour :</t>
+          <t>Ici, vous pouvez télécharger des statistiques sur les maux de tête et la prise de médicaments au format Excel ou générer un rapport général au format PDF</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Estadísticas de dolor de cabeza para:</t>
+          <t>Aquí puedes descargar estadísticas de dolores de cabeza y ingesta de medicamentos en formato Excel o generar un informe general en PDF</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>Статистика головного болю для:</t>
+          <t>Тут ви можете завантажити статистику про головні болі та прийом ліків у форматі Excel або створити загальний звіт у форматі PDF</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Собираю данные...</t>
+          <t>Статистика головных болей за:</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr"/>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Gathering data...</t>
+          <t>Headache statistics for:</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>Nous collectons des données...</t>
+          <t>Statistiques sur les maux de tête pour :</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>Recopilación de datos...</t>
+          <t>Estadísticas de dolor de cabeza para:</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>Збір даних...</t>
+          <t>Статистика головного болю для:</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>В течение запрошенного периода &lt;b&gt;({period_text})&lt;/b&gt; записей нет</t>
+          <t>Собираю данные...</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr"/>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>There are no records during the requested period &lt;b&gt;({period_text})&lt;/b&gt;</t>
+          <t>Gathering data...</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>Aucun enregistrement pendant la période demandée (&lt;b&gt;({period_text})&lt;/b&gt;)</t>
+          <t>Nous collectons des données...</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>No hay registros durante el periodo solicitado &lt;b&gt;({period_text})&lt;/b&gt;</t>
+          <t>Recopilación de datos...</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>За запитуваний період &lt;b&gt;({period_text})&lt;/b&gt; немає записів</t>
+          <t>Збір даних...</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Готово! Высылаю файл с данными...</t>
+          <t>В течение запрошенного периода &lt;b&gt;({period_text})&lt;/b&gt; записей нет</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr"/>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Ready! Sending you a file now...</t>
+          <t>There are no records during the requested period &lt;b&gt;({period_text})&lt;/b&gt;</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
         <is>
-          <t>C'est fait ! Envoi du fichier de données...</t>
+          <t>Aucun enregistrement pendant la période demandée &lt;b&gt;({period_text})&lt;/b&gt;</t>
         </is>
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>¡Listo! Enviando el archivo de datos…</t>
+          <t>No hay registros durante el periodo solicitado &lt;b&gt;({period_text})&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>Готово!Надсилаю вам файл з даними…</t>
+          <t>За запитуваний період &lt;b&gt;({period_text})&lt;/b&gt; немає записів</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>В данный момент сервер загружен, повторите, пожалуйста, через пару минут</t>
+          <t>Готово! Высылаю файл с данными...</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr"/>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>The server is currently loaded, please try again in a couple of minutes</t>
+          <t>Ready! Sending you a file now...</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>Le serveur est actuellement chargé, veuillez réessayer dans quelques minutes</t>
+          <t>C'est fait ! Envoi du fichier de données...</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>El servidor está actualmente cargado, inténtalo de nuevo en un par de minutos</t>
+          <t>¡Listo! Enviando el archivo de datos…</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>Наразі сервер завантажений, спробуйте ще раз через кілька хвилин</t>
+          <t>Готово!Надсилаю вам файл з даними…</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Неизвестная ошибка, отчёт уже отправлен администратору</t>
+          <t>В данный момент сервер загружен, повторите, пожалуйста, через пару минут</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr"/>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Unknown error, the report has already been sent to the administrator</t>
+          <t>The server is currently loaded, please try again in a couple of minutes</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>Erreur inconnue, le rapport a déjà été envoyé à l'administrateur</t>
+          <t>Le serveur est actuellement chargé, veuillez réessayer dans quelques minutes</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>Error desconocido, el informe ya ha sido enviado al administrador</t>
+          <t>El servidor está actualmente cargado, inténtalo de nuevo en un par de minutos</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>Невідома помилка, звіт уже надіслано адміністратору</t>
+          <t>Наразі сервер завантажений, спробуйте ще раз через кілька хвилин</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Статистика приёма лекарств за:</t>
+          <t>Неизвестная ошибка, отчёт уже отправлен администратору</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr"/>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Statistics of medication intake for:</t>
+          <t>Unknown error, the report has already been sent to the administrator</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>Statistiques de prise de médicaments pour :</t>
+          <t>Erreur inconnue, le rapport a déjà été envoyé à l'administrateur</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Estadísticas de ingesta de medicamentos para:</t>
+          <t>Error desconocido, el informe ya ha sido enviado al administrador</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>Статистика прийому ліків за:</t>
+          <t>Невідома помилка, звіт уже надіслано адміністратору</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Записи давления за:</t>
+          <t>Статистика приёма лекарств за:</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr"/>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Blood pressure records for:</t>
+          <t>Statistics of medication intake for:</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>Enregistrements de tension artérielle pour :</t>
+          <t>Statistiques de prise de médicaments pour :</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>Registros de presión arterial para:</t>
+          <t>Estadísticas de ingesta de medicamentos para:</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>Записи артеріального тиску за:</t>
+          <t>Статистика прийому ліків за:</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Сгенерировать отчёт за:</t>
+          <t>Записи давления за:</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr"/>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Generate a report for:</t>
+          <t>Blood pressure records for:</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>Générez un rapport pour :</t>
+          <t>Enregistrements de tension artérielle pour :</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Generar un informe para:</t>
+          <t>Registros de presión arterial para:</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>Створити звіт за:</t>
+          <t>Записи артеріального тиску за:</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>Сгенерировать отчёт за:</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="inlineStr"/>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Generate a report for:</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>Générez un rapport pour :</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>Generar un informe para:</t>
+        </is>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>Створити звіт за:</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>Привет! Я бот для ведения дневника головных болей, приёма лекарств и давления.
     Список доступных команд:
@@ -5676,8 +5731,8 @@
 🔘 /settings - настройки языка и времени оповещений</t>
         </is>
       </c>
-      <c r="B183" s="4" t="inlineStr"/>
-      <c r="C183" s="3" t="inlineStr">
+      <c r="B184" s="4" t="inlineStr"/>
+      <c r="C184" s="3" t="inlineStr">
         <is>
           <t>Hi, I'm a bot for keeping a diary of headaches, medication intake and blood pressure.
     List of available commands:
@@ -5690,7 +5745,7 @@
 🔘 /settings - customize the language and time of alerts</t>
         </is>
       </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="D184" s="3" t="inlineStr">
         <is>
           <t>Salut ! Je suis un bot qui permet de tenir un journal des maux de tête, de la prise de médicaments et de la tension artérielle. 
     Liste des commandes disponibles : 
@@ -5703,7 +5758,7 @@
 🔘 /settings - personnalisez la langue et l'heure des alertes</t>
         </is>
       </c>
-      <c r="E183" s="3" t="inlineStr">
+      <c r="E184" s="3" t="inlineStr">
         <is>
           <t>Hola, soy un bot para llevar un diario de dolores de cabeza, ingesta de medicamentos y presión arterial.
     Lista de comandos disponibles: 
@@ -5716,7 +5771,7 @@
 🔘 /settings personaliza el idioma y la hora de las alertas</t>
         </is>
       </c>
-      <c r="F183" s="3" t="inlineStr">
+      <c r="F184" s="3" t="inlineStr">
         <is>
           <t>Привіт! Я бот для ведення щоденника головного болю, прийому ліків і тиску. 
 Список доступних команд: 
@@ -5730,83 +5785,51 @@
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>день</t>
         </is>
       </c>
-      <c r="B184" s="4" t="inlineStr">
+      <c r="B185" s="4" t="inlineStr">
         <is>
           <t>NOTE 1
 NOTE 31</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D185" s="3" t="inlineStr">
         <is>
           <t>jour</t>
         </is>
       </c>
-      <c r="E184" s="3" t="inlineStr">
+      <c r="E185" s="3" t="inlineStr">
         <is>
           <t>día</t>
         </is>
       </c>
-      <c r="F184" s="3" t="inlineStr">
+      <c r="F185" s="3" t="inlineStr">
         <is>
           <t>день</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="3" t="inlineStr">
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>дня</t>
         </is>
       </c>
-      <c r="B185" s="4" t="inlineStr">
+      <c r="B186" s="4" t="inlineStr">
         <is>
           <t>NOTE 2
 NOTE 3</t>
         </is>
       </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>jours</t>
-        </is>
-      </c>
-      <c r="E185" s="3" t="inlineStr">
-        <is>
-          <t>días</t>
-        </is>
-      </c>
-      <c r="F185" s="3" t="inlineStr">
-        <is>
-          <t>днів</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="3" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="B186" s="4" t="inlineStr">
-        <is>
-          <t>NOTE 7</t>
-        </is>
-      </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
           <t>days</t>
@@ -5831,87 +5854,175 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Болела ли сегодня голова?</t>
-        </is>
-      </c>
-      <c r="B187" s="4" t="inlineStr"/>
+          <t>дней</t>
+        </is>
+      </c>
+      <c r="B187" s="4" t="inlineStr">
+        <is>
+          <t>NOTE 7</t>
+        </is>
+      </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Did you have a headache today?</t>
+          <t>days</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Avez-vous eu mal à la tête aujourd'hui ?</t>
+          <t>jours</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! ¿Tuviste dolor de cabeza hoy?</t>
+          <t>días</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! У вас сьогодні боліла голова?</t>
+          <t>днів</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Болела ли голова за последние {missing_days} {suffix}?</t>
+          <t>{greetings}! Болела ли сегодня голова?</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr"/>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Have you had a headache in the last {missing_days} {suffix}?</t>
+          <t>{greetings}! Did you have a headache today?</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Avez-vous eu des maux de tête au cours des derniers {missing_days} {suffix} ?</t>
+          <t>{greetings}! Avez-vous eu mal à la tête aujourd'hui ?</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! ¿Ha tenido dolor de cabeza en los últimos {missing_days} {suffix}?</t>
+          <t>{greetings}! ¿Tuviste dolor de cabeza hoy?</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>{greetings}! Чи боліла у вас голова за останні {missing_days} {suffix}?</t>
+          <t>{greetings}! У вас сьогодні боліла голова?</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
+          <t>{greetings}! Болела ли голова за последние {missing_days} {suffix}?</t>
+        </is>
+      </c>
+      <c r="B189" s="4" t="inlineStr"/>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>{greetings}! Have you had a headache in the last {missing_days} {suffix}?</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>{greetings}! Avez-vous eu des maux de tête au cours des derniers {missing_days} {suffix} ?</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>{greetings}! ¿Ha tenido dolor de cabeza en los últimos {missing_days} {suffix}?</t>
+        </is>
+      </c>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>{greetings}! Чи боліла у вас голова за останні {missing_days} {suffix}?</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>Да :(</t>
+        </is>
+      </c>
+      <c r="B190" s="4" t="inlineStr"/>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Yeap :(</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>Ouais :(</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>Sí :(</t>
+        </is>
+      </c>
+      <c r="F190" s="3" t="inlineStr">
+        <is>
+          <t>Ага :(</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>Нет, всё хорошо! / Уже добавлено</t>
+        </is>
+      </c>
+      <c r="B191" s="4" t="inlineStr"/>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>No, it's okay! / Already added</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t>Non c'est bon! / Déjà ajouté</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>¡No, está bien! / Ya añadido</t>
+        </is>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>Ні, все добре! / Вже додано</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
           <t>Прекрасно, Восхитительно, Чудесно, Великолепно, Круто, Здорово, Дивно, Чотко, Благодать, Потрясающе, Изумительно, Роскошно, Отменно, Бесподобно, Шикарно, Распрекрасно, Прелестно, Любо-дорого, Похвально, Обворожительно, Балдёж, Кайф, Неплохо, Превосходно</t>
         </is>
       </c>
-      <c r="B189" s="4" t="inlineStr">
+      <c r="B192" s="4" t="inlineStr">
         <is>
           <t>NOTE Give some nice words to user if the user did not have a headache.
 Separate by comma + space</t>
         </is>
       </c>
-      <c r="C189" s="3" t="inlineStr">
+      <c r="C192" s="3" t="inlineStr">
         <is>
           <t>Great to hear, Fantastic, Awesome, Wonderful news, That's a relief, Superb, Excellent, Marvelous, Brilliant, Amazing, Hooray, Terrific, Outstanding, Splendid, Good for you, Good to know, Cheers to a headache-free period, I'm so happy for you, That's fantastic news, Wonderful, Super news, I'm delighted to hear that</t>
         </is>
       </c>
-      <c r="D189" s="3" t="inlineStr">
+      <c r="D192" s="3" t="inlineStr">
         <is>
           <t>C'est agréable à entendre, Fantastique, Génial, Superbe, Excellent, Merveilleux, Brillant, Incroyable, Hourra, Splendide, Bon pour vous, Bon à savoir, Je suis tellement heureuse pour vous, C'est une fantastique nouvelle, Je suis ravi d'entendre ça</t>
         </is>
       </c>
-      <c r="E189" s="3" t="inlineStr">
+      <c r="E192" s="3" t="inlineStr">
         <is>
           <t>Es genial escucharlo, Fantástico, Impresionante, Maravillosa noticia, Eso es un alivio, Excelente, Maravilloso, Brillante, Increíble, Hurra, Espléndido, Es bueno saberlo, Saludos a un período sin dolores de cabeza, Es una noticia fantástica, Súper noticia, Me encanta escuchar eso</t>
         </is>
       </c>
-      <c r="F189" s="3" t="inlineStr">
+      <c r="F192" s="3" t="inlineStr">
         <is>
           <t>Приємно чути, Фантастично, Чудово, Чудові новини, Блискуче, Ура, Корисно знати, Дуже радий за вас, Це фантастична новина, Супер новина, Я радий це чути</t>
         </is>
